--- a/علاماتي.xlsx
+++ b/علاماتي.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\unverCity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="G4:I21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
       <c r="H20" s="1"/>
       <c r="I20">
         <f>AVERAGE(I13:I19)</f>
-        <v>65.857142857142861</v>
+        <v>68.428571428571431</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
@@ -572,11 +572,20 @@
       <c r="H21" s="1"/>
       <c r="I21">
         <f>AVERAGE(I12,I20)</f>
-        <v>69.785714285714278</v>
+        <v>71.071428571428569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -586,15 +595,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/علاماتي.xlsx
+++ b/علاماتي.xlsx
@@ -41,9 +41,6 @@
     <t>أجهزة قياس</t>
   </si>
   <si>
-    <t>كيمياء تحليلية</t>
-  </si>
-  <si>
     <t>كيمياء فيزيائية</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>معدل السنة الأولى</t>
+  </si>
+  <si>
+    <t>كيمياء تحليلية1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="G4:I21"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,12 +443,12 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8">
@@ -457,7 +457,7 @@
     </row>
     <row r="9" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9">
@@ -466,7 +466,7 @@
     </row>
     <row r="10" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10">
@@ -475,7 +475,7 @@
     </row>
     <row r="11" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11">
@@ -484,26 +484,26 @@
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12">
         <f>AVERAGE(I5:I11)</f>
-        <v>73.714285714285708</v>
+        <v>75.428571428571431</v>
       </c>
     </row>
     <row r="13" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14">
@@ -512,7 +512,7 @@
     </row>
     <row r="15" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15">
@@ -521,7 +521,7 @@
     </row>
     <row r="16" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16">
@@ -530,7 +530,7 @@
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17">
@@ -539,16 +539,16 @@
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19">
@@ -557,26 +557,35 @@
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20">
         <f>AVERAGE(I13:I19)</f>
-        <v>68.428571428571431</v>
+        <v>73.714285714285708</v>
       </c>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21">
         <f>AVERAGE(I12,I20)</f>
-        <v>71.071428571428569</v>
+        <v>74.571428571428569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
@@ -586,15 +595,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/علاماتي.xlsx
+++ b/علاماتي.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>اسم المادة</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>كيمياء تحليلية1</t>
+  </si>
+  <si>
+    <t>تجارب ومعامل</t>
+  </si>
+  <si>
+    <t>تك صناعات لاعضوية</t>
+  </si>
+  <si>
+    <t>لغة اجنبية</t>
+  </si>
+  <si>
+    <t>تنظيم صناعي</t>
+  </si>
+  <si>
+    <t>حملة</t>
+  </si>
+  <si>
+    <t>تلوث وحماية بيئة</t>
+  </si>
+  <si>
+    <t>عضوية مغلقة</t>
   </si>
 </sst>
 </file>
@@ -97,12 +118,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +150,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -402,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G4:I21"/>
+  <dimension ref="G4:J28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,11 +524,11 @@
       </c>
     </row>
     <row r="12" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12">
+      <c r="H12" s="3"/>
+      <c r="I12" s="2">
         <f>AVERAGE(I5:I11)</f>
         <v>75.428571428571431</v>
       </c>
@@ -528,7 +569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
@@ -537,7 +578,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
@@ -546,7 +587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
@@ -555,28 +596,111 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20">
+      <c r="H20" s="3"/>
+      <c r="I20" s="2">
         <f>AVERAGE(I13:I19)</f>
         <v>73.714285714285708</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="1" t="s">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21">
+      <c r="H21" s="5"/>
+      <c r="I21" s="4">
         <f>AVERAGE(I12,I20)</f>
         <v>74.571428571428569</v>
       </c>
     </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2">
+        <f>AVERAGE(I22:I27)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
@@ -586,15 +710,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
